--- a/assets/file_rab/c81e728d9d4c2f636f067f89cc14862c.xlsx
+++ b/assets/file_rab/c81e728d9d4c2f636f067f89cc14862c.xlsx
@@ -53,22 +53,22 @@
     <t>TOTAL HARGA</t>
   </si>
   <si>
-    <t>ATK</t>
-  </si>
-  <si>
-    <t>ATK lengkap</t>
-  </si>
-  <si>
-    <t>Daniel Tri Widyatmoko</t>
-  </si>
-  <si>
-    <t>Manajer</t>
-  </si>
-  <si>
-    <t>pilot</t>
-  </si>
-  <si>
-    <t>2018-05-03</t>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AC ruangan</t>
+  </si>
+  <si>
+    <t>Anang Susilo</t>
+  </si>
+  <si>
+    <t>Kepala</t>
+  </si>
+  <si>
+    <t>daikin</t>
+  </si>
+  <si>
+    <t>2018-06-07</t>
   </si>
   <si>
     <t>www.google.com</t>
@@ -545,16 +545,16 @@
         <v>17</v>
       </c>
       <c r="H4" s="3">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="I4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="3">
-        <v>9000000</v>
+        <v>2000000</v>
       </c>
     </row>
   </sheetData>

--- a/assets/file_rab/c81e728d9d4c2f636f067f89cc14862c.xlsx
+++ b/assets/file_rab/c81e728d9d4c2f636f067f89cc14862c.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>DATA SISWA</t>
   </si>
@@ -53,25 +53,31 @@
     <t>TOTAL HARGA</t>
   </si>
   <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>AC ruangan</t>
-  </si>
-  <si>
-    <t>Anang Susilo</t>
-  </si>
-  <si>
-    <t>Kepala</t>
-  </si>
-  <si>
-    <t>daikin</t>
-  </si>
-  <si>
-    <t>2018-06-07</t>
+    <t>Kursi</t>
+  </si>
+  <si>
+    <t>Kursi Kantor Baru</t>
+  </si>
+  <si>
+    <t>Daniel Tri Widyatmoko</t>
+  </si>
+  <si>
+    <t>Manajer</t>
+  </si>
+  <si>
+    <t>furniture</t>
+  </si>
+  <si>
+    <t>2018-05-14</t>
   </si>
   <si>
     <t>www.google.com</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>ATK lengkap</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -545,16 +551,51 @@
         <v>17</v>
       </c>
       <c r="H4" s="3">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="3">
-        <v>2000000</v>
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3">
+        <v>150000</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1050000</v>
       </c>
     </row>
   </sheetData>
